--- a/resourses/vrs_details.xlsx
+++ b/resourses/vrs_details.xlsx
@@ -4,14 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Filter-01" sheetId="1" r:id="rId1"/>
     <sheet name="Filter-02" sheetId="2" r:id="rId2"/>
     <sheet name="Filter-03(04)" sheetId="3" r:id="rId3"/>
+    <sheet name="Vent-01" sheetId="4" r:id="rId4"/>
+    <sheet name="Vent-02" sheetId="5" r:id="rId5"/>
+    <sheet name="Vent-03(04)" sheetId="6" r:id="rId6"/>
+    <sheet name="vnv5012-01" sheetId="7" r:id="rId7"/>
+    <sheet name="vnv5012-02" sheetId="8" r:id="rId8"/>
+    <sheet name="vnv5012-03(04)" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="457">
   <si>
     <t xml:space="preserve">ПЕРЕЧЕНЬ ДЕТАЛЕЙ ДЛЯ РАМЫ БЛОКА КАРМАННОГО(ПАНЕЛЬНОГО) ФИЛЬТРА </t>
   </si>
@@ -1248,13 +1254,157 @@
   </si>
   <si>
     <t>VRS 500-500-01</t>
+  </si>
+  <si>
+    <t>ПЕРЕЧЕНЬ ДЕТАЛЕЙ ДЛЯ БЛОКА ВОСК</t>
+  </si>
+  <si>
+    <t>Направляющая ВОСК 62,72,92</t>
+  </si>
+  <si>
+    <t>оц 3,0+RAL</t>
+  </si>
+  <si>
+    <t>Панель ВОСК 62,72,92 ВЕРОСА 500</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.003.01-2,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кронштейн обратный </t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.003.01-2,5</t>
+  </si>
+  <si>
+    <t>VRS 500-019-01 ВОСК 2,5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.001.01-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.002.01-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.001.01-019*2.8</t>
+  </si>
+  <si>
+    <t>VRS 500-019-01 ВОСК 2.8</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.002.01-019*2.8</t>
+  </si>
+  <si>
+    <t>VRS 500-019-01 ВОСК 3,15</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.001А-01</t>
+  </si>
+  <si>
+    <t>Опора</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.002А-01</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.003А-04</t>
+  </si>
+  <si>
+    <t>Швеллер</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.003А-05</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.00.004А-04</t>
+  </si>
+  <si>
+    <t>Плита подмоторная</t>
+  </si>
+  <si>
+    <t>ИН 761.00.00.003А-10</t>
+  </si>
+  <si>
+    <t>Компенсатор</t>
+  </si>
+  <si>
+    <t>ОЦ 2,0 + RAL</t>
+  </si>
+  <si>
+    <t>ОЦ 3,0 + RAL</t>
+  </si>
+  <si>
+    <t>ОЦ 1,0 + RAL</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.00.004А-05</t>
+  </si>
+  <si>
+    <t>ВОСК 2,5 А56</t>
+  </si>
+  <si>
+    <t>ВОСК 2,5 А63</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.003А-06</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.003А-07</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.00.004А-06</t>
+  </si>
+  <si>
+    <t>ВОСК 2,5 А71</t>
+  </si>
+  <si>
+    <t>ИНББ 230.00.00.00.004А-07</t>
+  </si>
+  <si>
+    <t>ИН 761.00.00.003А-11</t>
+  </si>
+  <si>
+    <t>ВОСК 2,5 А80</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.001.02-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.002.02-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.003.02-2,5</t>
+  </si>
+  <si>
+    <t>нерж 3,0</t>
+  </si>
+  <si>
+    <t>НЕРЖ 2,0</t>
+  </si>
+  <si>
+    <t>НЕРЖ 3,0</t>
+  </si>
+  <si>
+    <t>НЕРЖ 1,0</t>
+  </si>
+  <si>
+    <t>ОЦ-2,0</t>
+  </si>
+  <si>
+    <t>ОЦ-3,0</t>
+  </si>
+  <si>
+    <t>ОЦ-1,0</t>
+  </si>
+  <si>
+    <t>оц 3,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,8 +1501,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,8 +1521,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1583,13 +1745,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,6 +1893,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1757,6 +1954,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2042,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N414"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A415" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2055,31 +2264,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -2224,12 +2433,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
@@ -2373,12 +2582,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -2522,12 +2731,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -2685,12 +2894,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -2848,12 +3057,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -3011,12 +3220,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -3202,12 +3411,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -3365,12 +3574,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -3556,12 +3765,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="56"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -3705,12 +3914,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="56"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="70"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -3868,12 +4077,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="56"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="70"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -4031,12 +4240,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="55"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="56"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="70"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -4222,12 +4431,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="56"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -4385,12 +4594,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="54" t="s">
+      <c r="A201" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="B201" s="55"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="56"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="70"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -4576,12 +4785,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="57" t="s">
+      <c r="A217" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="59"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="73"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -4739,12 +4948,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="B231" s="55"/>
-      <c r="C231" s="55"/>
-      <c r="D231" s="56"/>
+      <c r="B231" s="69"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="70"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -4902,12 +5111,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="54" t="s">
+      <c r="A245" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="B245" s="55"/>
-      <c r="C245" s="55"/>
-      <c r="D245" s="56"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="70"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -5093,12 +5302,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="54" t="s">
+      <c r="A261" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="B261" s="55"/>
-      <c r="C261" s="55"/>
-      <c r="D261" s="56"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="70"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -5256,12 +5465,12 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="54" t="s">
+      <c r="A275" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="B275" s="55"/>
-      <c r="C275" s="55"/>
-      <c r="D275" s="56"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="70"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -5447,12 +5656,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="B291" s="55"/>
-      <c r="C291" s="55"/>
-      <c r="D291" s="56"/>
+      <c r="B291" s="69"/>
+      <c r="C291" s="69"/>
+      <c r="D291" s="70"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -5638,12 +5847,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="54" t="s">
+      <c r="A307" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="B307" s="55"/>
-      <c r="C307" s="55"/>
-      <c r="D307" s="56"/>
+      <c r="B307" s="69"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="70"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -5801,12 +6010,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="54" t="s">
+      <c r="A321" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="B321" s="55"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="56"/>
+      <c r="B321" s="69"/>
+      <c r="C321" s="69"/>
+      <c r="D321" s="70"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -5992,12 +6201,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="54" t="s">
+      <c r="A337" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="B337" s="55"/>
-      <c r="C337" s="55"/>
-      <c r="D337" s="56"/>
+      <c r="B337" s="69"/>
+      <c r="C337" s="69"/>
+      <c r="D337" s="70"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -6183,12 +6392,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="54" t="s">
+      <c r="A353" s="68" t="s">
         <v>386</v>
       </c>
-      <c r="B353" s="55"/>
-      <c r="C353" s="55"/>
-      <c r="D353" s="56"/>
+      <c r="B353" s="69"/>
+      <c r="C353" s="69"/>
+      <c r="D353" s="70"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -6374,12 +6583,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="54" t="s">
+      <c r="A369" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="B369" s="55"/>
-      <c r="C369" s="55"/>
-      <c r="D369" s="56"/>
+      <c r="B369" s="69"/>
+      <c r="C369" s="69"/>
+      <c r="D369" s="70"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -6565,12 +6774,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="54" t="s">
+      <c r="A385" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="B385" s="55"/>
-      <c r="C385" s="55"/>
-      <c r="D385" s="56"/>
+      <c r="B385" s="69"/>
+      <c r="C385" s="69"/>
+      <c r="D385" s="70"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -6756,12 +6965,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="54" t="s">
+      <c r="A401" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="B401" s="55"/>
-      <c r="C401" s="55"/>
-      <c r="D401" s="56"/>
+      <c r="B401" s="69"/>
+      <c r="C401" s="69"/>
+      <c r="D401" s="70"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -6997,31 +7206,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -7166,12 +7375,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
@@ -7315,12 +7524,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -7464,12 +7673,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -7627,12 +7836,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -7790,12 +7999,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -7953,12 +8162,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -8144,12 +8353,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -8307,12 +8516,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -8498,12 +8707,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="56"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -8647,12 +8856,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="56"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="70"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -8810,12 +9019,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="56"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="70"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -8973,12 +9182,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="B171" s="55"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="56"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="70"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -9164,12 +9373,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="56"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -9327,12 +9536,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="54" t="s">
+      <c r="A201" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="55"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="56"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="70"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -9518,12 +9727,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="57" t="s">
+      <c r="A217" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="59"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="73"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -9681,12 +9890,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="B231" s="55"/>
-      <c r="C231" s="55"/>
-      <c r="D231" s="56"/>
+      <c r="B231" s="69"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="70"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -9844,12 +10053,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="54" t="s">
+      <c r="A245" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="B245" s="55"/>
-      <c r="C245" s="55"/>
-      <c r="D245" s="56"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="70"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -10035,12 +10244,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="54" t="s">
+      <c r="A261" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="B261" s="55"/>
-      <c r="C261" s="55"/>
-      <c r="D261" s="56"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="70"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -10198,12 +10407,12 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="54" t="s">
+      <c r="A275" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="B275" s="55"/>
-      <c r="C275" s="55"/>
-      <c r="D275" s="56"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="70"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -10389,12 +10598,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="B291" s="55"/>
-      <c r="C291" s="55"/>
-      <c r="D291" s="56"/>
+      <c r="B291" s="69"/>
+      <c r="C291" s="69"/>
+      <c r="D291" s="70"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -10580,12 +10789,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="54" t="s">
+      <c r="A307" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="B307" s="55"/>
-      <c r="C307" s="55"/>
-      <c r="D307" s="56"/>
+      <c r="B307" s="69"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="70"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -10743,12 +10952,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="54" t="s">
+      <c r="A321" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="B321" s="55"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="56"/>
+      <c r="B321" s="69"/>
+      <c r="C321" s="69"/>
+      <c r="D321" s="70"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -10934,12 +11143,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="54" t="s">
+      <c r="A337" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="B337" s="55"/>
-      <c r="C337" s="55"/>
-      <c r="D337" s="56"/>
+      <c r="B337" s="69"/>
+      <c r="C337" s="69"/>
+      <c r="D337" s="70"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -11125,12 +11334,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="54" t="s">
+      <c r="A353" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="B353" s="55"/>
-      <c r="C353" s="55"/>
-      <c r="D353" s="56"/>
+      <c r="B353" s="69"/>
+      <c r="C353" s="69"/>
+      <c r="D353" s="70"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -11316,12 +11525,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="54" t="s">
+      <c r="A369" s="68" t="s">
         <v>391</v>
       </c>
-      <c r="B369" s="55"/>
-      <c r="C369" s="55"/>
-      <c r="D369" s="56"/>
+      <c r="B369" s="69"/>
+      <c r="C369" s="69"/>
+      <c r="D369" s="70"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -11507,12 +11716,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="54" t="s">
+      <c r="A385" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="B385" s="55"/>
-      <c r="C385" s="55"/>
-      <c r="D385" s="56"/>
+      <c r="B385" s="69"/>
+      <c r="C385" s="69"/>
+      <c r="D385" s="70"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -11698,12 +11907,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="54" t="s">
+      <c r="A401" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="B401" s="55"/>
-      <c r="C401" s="55"/>
-      <c r="D401" s="56"/>
+      <c r="B401" s="69"/>
+      <c r="C401" s="69"/>
+      <c r="D401" s="70"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -11927,7 +12136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -11940,31 +12149,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -12109,12 +12318,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="4" t="s">
@@ -12258,12 +12467,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -12407,12 +12616,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -12576,12 +12785,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -12739,12 +12948,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -12902,12 +13111,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -13093,12 +13302,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -13256,12 +13465,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -13447,12 +13656,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="56"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -13596,12 +13805,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="56"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="70"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -13759,12 +13968,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="56"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="70"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -13922,12 +14131,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B171" s="55"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="56"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="70"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -14119,12 +14328,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="56"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="70"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -14282,12 +14491,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="54" t="s">
+      <c r="A201" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B201" s="55"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="56"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="70"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -14473,12 +14682,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="57" t="s">
+      <c r="A217" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="59"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="73"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -14639,12 +14848,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B231" s="55"/>
-      <c r="C231" s="55"/>
-      <c r="D231" s="56"/>
+      <c r="B231" s="69"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="70"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -14802,12 +15011,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="54" t="s">
+      <c r="A245" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B245" s="55"/>
-      <c r="C245" s="55"/>
-      <c r="D245" s="56"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="70"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -14993,12 +15202,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="54" t="s">
+      <c r="A261" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B261" s="55"/>
-      <c r="C261" s="55"/>
-      <c r="D261" s="56"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="70"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -15167,12 +15376,12 @@
       <c r="D274" s="52"/>
     </row>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="54" t="s">
+      <c r="A275" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="55"/>
-      <c r="C275" s="55"/>
-      <c r="D275" s="56"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="70"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -15358,12 +15567,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B291" s="55"/>
-      <c r="C291" s="55"/>
-      <c r="D291" s="56"/>
+      <c r="B291" s="69"/>
+      <c r="C291" s="69"/>
+      <c r="D291" s="70"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -15549,12 +15758,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="54" t="s">
+      <c r="A307" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B307" s="55"/>
-      <c r="C307" s="55"/>
-      <c r="D307" s="56"/>
+      <c r="B307" s="69"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="70"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -15712,12 +15921,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="54" t="s">
+      <c r="A321" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B321" s="55"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="56"/>
+      <c r="B321" s="69"/>
+      <c r="C321" s="69"/>
+      <c r="D321" s="70"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -15903,12 +16112,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="54" t="s">
+      <c r="A337" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B337" s="55"/>
-      <c r="C337" s="55"/>
-      <c r="D337" s="56"/>
+      <c r="B337" s="69"/>
+      <c r="C337" s="69"/>
+      <c r="D337" s="70"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -16100,12 +16309,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="54" t="s">
+      <c r="A353" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B353" s="55"/>
-      <c r="C353" s="55"/>
-      <c r="D353" s="56"/>
+      <c r="B353" s="69"/>
+      <c r="C353" s="69"/>
+      <c r="D353" s="70"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -16297,12 +16506,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="54" t="s">
+      <c r="A369" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B369" s="55"/>
-      <c r="C369" s="55"/>
-      <c r="D369" s="56"/>
+      <c r="B369" s="69"/>
+      <c r="C369" s="69"/>
+      <c r="D369" s="70"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -16488,12 +16697,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="54" t="s">
+      <c r="A385" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B385" s="55"/>
-      <c r="C385" s="55"/>
-      <c r="D385" s="56"/>
+      <c r="B385" s="69"/>
+      <c r="C385" s="69"/>
+      <c r="D385" s="70"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -16679,12 +16888,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="54" t="s">
+      <c r="A401" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B401" s="55"/>
-      <c r="C401" s="55"/>
-      <c r="D401" s="56"/>
+      <c r="B401" s="69"/>
+      <c r="C401" s="69"/>
+      <c r="D401" s="70"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -16903,4 +17112,1874 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S15" sqref="A1:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75">
+      <c r="A2" s="80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="F2" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="K2" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="P2" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="63">
+        <v>1</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="63">
+        <v>2</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="63">
+        <v>2</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="63">
+        <v>2</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" s="63">
+        <v>1</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="63">
+        <v>1</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R7" s="63">
+        <v>1</v>
+      </c>
+      <c r="S7" s="62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="M8" s="65">
+        <v>1</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="R8" s="65">
+        <v>1</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="63">
+        <v>4</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="63">
+        <v>4</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M9" s="63">
+        <v>4</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="R9" s="63">
+        <v>4</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:19" ht="23.25">
+      <c r="A11" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="K11" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A15" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15" s="13">
+        <v>2</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:S1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75">
+      <c r="A2" s="80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="F2" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="K2" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="P2" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="63">
+        <v>1</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="63">
+        <v>2</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="63">
+        <v>2</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="63">
+        <v>2</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" s="63">
+        <v>1</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="63">
+        <v>1</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R7" s="63">
+        <v>1</v>
+      </c>
+      <c r="S7" s="62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="M8" s="65">
+        <v>1</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="R8" s="65">
+        <v>1</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="63">
+        <v>4</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="63">
+        <v>4</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M9" s="63">
+        <v>4</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="R9" s="63">
+        <v>4</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:19" ht="23.25">
+      <c r="A11" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="K11" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A15" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15" s="13">
+        <v>2</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75">
+      <c r="A2" s="80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="F2" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="K2" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="P2" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1</v>
+      </c>
+      <c r="N4" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="63">
+        <v>1</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="63">
+        <v>2</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="63">
+        <v>2</v>
+      </c>
+      <c r="N5" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="63">
+        <v>2</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" s="63">
+        <v>1</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="63">
+        <v>1</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R7" s="63">
+        <v>1</v>
+      </c>
+      <c r="S7" s="63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="65">
+        <v>1</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="M8" s="65">
+        <v>1</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="R8" s="65">
+        <v>1</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="63">
+        <v>4</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="63">
+        <v>4</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M9" s="63">
+        <v>4</v>
+      </c>
+      <c r="N9" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="R9" s="63">
+        <v>4</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:19" ht="23.25">
+      <c r="A11" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="K11" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A15" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15" s="13">
+        <v>2</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resourses/vrs_details.xlsx
+++ b/resourses/vrs_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Filter-01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="463">
   <si>
     <t xml:space="preserve">ПЕРЕЧЕНЬ ДЕТАЛЕЙ ДЛЯ РАМЫ БЛОКА КАРМАННОГО(ПАНЕЛЬНОГО) ФИЛЬТРА </t>
   </si>
@@ -1398,6 +1398,24 @@
   </si>
   <si>
     <t>оц 3,0</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.001.03-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.002.03-019*2.5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.003.03-2,5</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.001.03-019*2.8</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.002.03-019*2.8</t>
+  </si>
+  <si>
+    <t>ВХ 500.05.00.003.03-2,8</t>
   </si>
 </sst>
 </file>
@@ -1919,6 +1937,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1926,6 +1947,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,15 +1976,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1963,9 +1984,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2241,7 +2259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2251,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -2264,31 +2282,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -2433,12 +2451,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
@@ -2582,12 +2600,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -2731,12 +2749,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -2894,12 +2912,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -3057,12 +3075,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -3220,12 +3238,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -3411,12 +3429,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -3574,12 +3592,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -3765,12 +3783,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="68" t="s">
+      <c r="A130" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="71"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -3914,12 +3932,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="71"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -4077,12 +4095,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="70"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="71"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -4240,12 +4258,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="70"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="71"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -4431,12 +4449,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="68" t="s">
+      <c r="A187" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="B187" s="69"/>
-      <c r="C187" s="69"/>
-      <c r="D187" s="70"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -4594,12 +4612,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="68" t="s">
+      <c r="A201" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="B201" s="69"/>
-      <c r="C201" s="69"/>
-      <c r="D201" s="70"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="71"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -4785,12 +4803,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="71" t="s">
+      <c r="A217" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="73"/>
+      <c r="B217" s="76"/>
+      <c r="C217" s="76"/>
+      <c r="D217" s="77"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -4948,12 +4966,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="68" t="s">
+      <c r="A231" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="B231" s="69"/>
-      <c r="C231" s="69"/>
-      <c r="D231" s="70"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="70"/>
+      <c r="D231" s="71"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -5111,12 +5129,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="68" t="s">
+      <c r="A245" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="B245" s="69"/>
-      <c r="C245" s="69"/>
-      <c r="D245" s="70"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="71"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -5302,12 +5320,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="68" t="s">
+      <c r="A261" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="B261" s="69"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="70"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="71"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -5465,12 +5483,12 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="68" t="s">
+      <c r="A275" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="70"/>
+      <c r="B275" s="70"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="71"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -5656,12 +5674,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="B291" s="69"/>
-      <c r="C291" s="69"/>
-      <c r="D291" s="70"/>
+      <c r="B291" s="70"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="71"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -5847,12 +5865,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="68" t="s">
+      <c r="A307" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B307" s="69"/>
-      <c r="C307" s="69"/>
-      <c r="D307" s="70"/>
+      <c r="B307" s="70"/>
+      <c r="C307" s="70"/>
+      <c r="D307" s="71"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -6010,12 +6028,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="68" t="s">
+      <c r="A321" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="B321" s="69"/>
-      <c r="C321" s="69"/>
-      <c r="D321" s="70"/>
+      <c r="B321" s="70"/>
+      <c r="C321" s="70"/>
+      <c r="D321" s="71"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -6201,12 +6219,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="68" t="s">
+      <c r="A337" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="B337" s="69"/>
-      <c r="C337" s="69"/>
-      <c r="D337" s="70"/>
+      <c r="B337" s="70"/>
+      <c r="C337" s="70"/>
+      <c r="D337" s="71"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -6392,12 +6410,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="68" t="s">
+      <c r="A353" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="B353" s="69"/>
-      <c r="C353" s="69"/>
-      <c r="D353" s="70"/>
+      <c r="B353" s="70"/>
+      <c r="C353" s="70"/>
+      <c r="D353" s="71"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -6583,12 +6601,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="68" t="s">
+      <c r="A369" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="B369" s="69"/>
-      <c r="C369" s="69"/>
-      <c r="D369" s="70"/>
+      <c r="B369" s="70"/>
+      <c r="C369" s="70"/>
+      <c r="D369" s="71"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -6774,12 +6792,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="68" t="s">
+      <c r="A385" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="B385" s="69"/>
-      <c r="C385" s="69"/>
-      <c r="D385" s="70"/>
+      <c r="B385" s="70"/>
+      <c r="C385" s="70"/>
+      <c r="D385" s="71"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -6965,12 +6983,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="68" t="s">
+      <c r="A401" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="B401" s="69"/>
-      <c r="C401" s="69"/>
-      <c r="D401" s="70"/>
+      <c r="B401" s="70"/>
+      <c r="C401" s="70"/>
+      <c r="D401" s="71"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -7156,6 +7174,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A353:D353"/>
     <mergeCell ref="A369:D369"/>
     <mergeCell ref="A385:D385"/>
@@ -7165,26 +7203,6 @@
     <mergeCell ref="A307:D307"/>
     <mergeCell ref="A321:D321"/>
     <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A245:D245"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7206,31 +7224,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -7375,12 +7393,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
@@ -7524,12 +7542,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -7673,12 +7691,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -7836,12 +7854,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -7999,12 +8017,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -8162,12 +8180,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -8353,12 +8371,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -8516,12 +8534,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -8707,12 +8725,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="68" t="s">
+      <c r="A130" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="71"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -8856,12 +8874,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="71"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -9019,12 +9037,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="70"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="71"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -9182,12 +9200,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="70"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="71"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -9373,12 +9391,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="68" t="s">
+      <c r="A187" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="B187" s="69"/>
-      <c r="C187" s="69"/>
-      <c r="D187" s="70"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -9536,12 +9554,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="68" t="s">
+      <c r="A201" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="69"/>
-      <c r="C201" s="69"/>
-      <c r="D201" s="70"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="71"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -9727,12 +9745,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="71" t="s">
+      <c r="A217" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="73"/>
+      <c r="B217" s="76"/>
+      <c r="C217" s="76"/>
+      <c r="D217" s="77"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -9890,12 +9908,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="68" t="s">
+      <c r="A231" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="B231" s="69"/>
-      <c r="C231" s="69"/>
-      <c r="D231" s="70"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="70"/>
+      <c r="D231" s="71"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -10053,12 +10071,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="68" t="s">
+      <c r="A245" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="B245" s="69"/>
-      <c r="C245" s="69"/>
-      <c r="D245" s="70"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="71"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -10244,12 +10262,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="68" t="s">
+      <c r="A261" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="B261" s="69"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="70"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="71"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -10407,12 +10425,12 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="68" t="s">
+      <c r="A275" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="70"/>
+      <c r="B275" s="70"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="71"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -10598,12 +10616,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="B291" s="69"/>
-      <c r="C291" s="69"/>
-      <c r="D291" s="70"/>
+      <c r="B291" s="70"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="71"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -10789,12 +10807,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="68" t="s">
+      <c r="A307" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="B307" s="69"/>
-      <c r="C307" s="69"/>
-      <c r="D307" s="70"/>
+      <c r="B307" s="70"/>
+      <c r="C307" s="70"/>
+      <c r="D307" s="71"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -10952,12 +10970,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="68" t="s">
+      <c r="A321" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="B321" s="69"/>
-      <c r="C321" s="69"/>
-      <c r="D321" s="70"/>
+      <c r="B321" s="70"/>
+      <c r="C321" s="70"/>
+      <c r="D321" s="71"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -11143,12 +11161,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="68" t="s">
+      <c r="A337" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="B337" s="69"/>
-      <c r="C337" s="69"/>
-      <c r="D337" s="70"/>
+      <c r="B337" s="70"/>
+      <c r="C337" s="70"/>
+      <c r="D337" s="71"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -11334,12 +11352,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="68" t="s">
+      <c r="A353" s="69" t="s">
         <v>385</v>
       </c>
-      <c r="B353" s="69"/>
-      <c r="C353" s="69"/>
-      <c r="D353" s="70"/>
+      <c r="B353" s="70"/>
+      <c r="C353" s="70"/>
+      <c r="D353" s="71"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -11525,12 +11543,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="68" t="s">
+      <c r="A369" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="B369" s="69"/>
-      <c r="C369" s="69"/>
-      <c r="D369" s="70"/>
+      <c r="B369" s="70"/>
+      <c r="C369" s="70"/>
+      <c r="D369" s="71"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -11716,12 +11734,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="68" t="s">
+      <c r="A385" s="69" t="s">
         <v>393</v>
       </c>
-      <c r="B385" s="69"/>
-      <c r="C385" s="69"/>
-      <c r="D385" s="70"/>
+      <c r="B385" s="70"/>
+      <c r="C385" s="70"/>
+      <c r="D385" s="71"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -11907,12 +11925,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="68" t="s">
+      <c r="A401" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="B401" s="69"/>
-      <c r="C401" s="69"/>
-      <c r="D401" s="70"/>
+      <c r="B401" s="70"/>
+      <c r="C401" s="70"/>
+      <c r="D401" s="71"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -12098,6 +12116,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A353:D353"/>
     <mergeCell ref="A369:D369"/>
     <mergeCell ref="A385:D385"/>
@@ -12107,26 +12145,6 @@
     <mergeCell ref="A307:D307"/>
     <mergeCell ref="A321:D321"/>
     <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A261:D261"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12149,31 +12167,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="23.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -12318,12 +12336,12 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="4" t="s">
@@ -12467,12 +12485,12 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:4" ht="23.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="4" t="s">
@@ -12616,12 +12634,12 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:4" ht="23.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="4" t="s">
@@ -12785,12 +12803,12 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:4" ht="23.25">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="25" t="s">
@@ -12948,12 +12966,12 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="70" spans="1:4" ht="23.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="4" t="s">
@@ -13111,12 +13129,12 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="84" spans="1:4" ht="23.25">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="4" t="s">
@@ -13302,12 +13320,12 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:4" ht="23.25">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="4" t="s">
@@ -13465,12 +13483,12 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="1:4" ht="23.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="4" t="s">
@@ -13656,12 +13674,12 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="68" t="s">
+      <c r="A130" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="71"/>
     </row>
     <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="4" t="s">
@@ -13805,12 +13823,12 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="143" spans="1:4" ht="23.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="71"/>
     </row>
     <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="4" t="s">
@@ -13968,12 +13986,12 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:4" ht="23.25">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="70"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="71"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25" t="s">
@@ -14131,12 +14149,12 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:4" ht="23.25">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="70"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="71"/>
     </row>
     <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="4" t="s">
@@ -14328,12 +14346,12 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:4" ht="23.25">
-      <c r="A187" s="68" t="s">
+      <c r="A187" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="69"/>
-      <c r="C187" s="69"/>
-      <c r="D187" s="70"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="4" t="s">
@@ -14491,12 +14509,12 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="201" spans="1:4" ht="23.25">
-      <c r="A201" s="68" t="s">
+      <c r="A201" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B201" s="69"/>
-      <c r="C201" s="69"/>
-      <c r="D201" s="70"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="71"/>
     </row>
     <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="4" t="s">
@@ -14682,12 +14700,12 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:4" ht="23.25">
-      <c r="A217" s="71" t="s">
+      <c r="A217" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="73"/>
+      <c r="B217" s="76"/>
+      <c r="C217" s="76"/>
+      <c r="D217" s="77"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="25" t="s">
@@ -14848,12 +14866,12 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:4" ht="23.25">
-      <c r="A231" s="68" t="s">
+      <c r="A231" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B231" s="69"/>
-      <c r="C231" s="69"/>
-      <c r="D231" s="70"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="70"/>
+      <c r="D231" s="71"/>
     </row>
     <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="4" t="s">
@@ -15011,12 +15029,12 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:4" ht="23.25">
-      <c r="A245" s="68" t="s">
+      <c r="A245" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B245" s="69"/>
-      <c r="C245" s="69"/>
-      <c r="D245" s="70"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="71"/>
     </row>
     <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="4" t="s">
@@ -15202,12 +15220,12 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="261" spans="1:4" ht="23.25">
-      <c r="A261" s="68" t="s">
+      <c r="A261" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B261" s="69"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="70"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="71"/>
     </row>
     <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="4" t="s">
@@ -15376,12 +15394,12 @@
       <c r="D274" s="52"/>
     </row>
     <row r="275" spans="1:4" ht="23.25">
-      <c r="A275" s="68" t="s">
+      <c r="A275" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="70"/>
+      <c r="B275" s="70"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="71"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="4" t="s">
@@ -15567,12 +15585,12 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="291" spans="1:4" ht="23.25">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B291" s="69"/>
-      <c r="C291" s="69"/>
-      <c r="D291" s="70"/>
+      <c r="B291" s="70"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="71"/>
     </row>
     <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="4" t="s">
@@ -15758,12 +15776,12 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="307" spans="1:4" ht="23.25">
-      <c r="A307" s="68" t="s">
+      <c r="A307" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B307" s="69"/>
-      <c r="C307" s="69"/>
-      <c r="D307" s="70"/>
+      <c r="B307" s="70"/>
+      <c r="C307" s="70"/>
+      <c r="D307" s="71"/>
     </row>
     <row r="308" spans="1:4" ht="15.75">
       <c r="A308" s="4" t="s">
@@ -15921,12 +15939,12 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="321" spans="1:4" ht="23.25">
-      <c r="A321" s="68" t="s">
+      <c r="A321" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B321" s="69"/>
-      <c r="C321" s="69"/>
-      <c r="D321" s="70"/>
+      <c r="B321" s="70"/>
+      <c r="C321" s="70"/>
+      <c r="D321" s="71"/>
     </row>
     <row r="322" spans="1:4" ht="15.75">
       <c r="A322" s="4" t="s">
@@ -16112,12 +16130,12 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="337" spans="1:4" ht="23.25">
-      <c r="A337" s="68" t="s">
+      <c r="A337" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B337" s="69"/>
-      <c r="C337" s="69"/>
-      <c r="D337" s="70"/>
+      <c r="B337" s="70"/>
+      <c r="C337" s="70"/>
+      <c r="D337" s="71"/>
     </row>
     <row r="338" spans="1:4" ht="15.75">
       <c r="A338" s="4" t="s">
@@ -16309,12 +16327,12 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="353" spans="1:4" ht="23.25">
-      <c r="A353" s="68" t="s">
+      <c r="A353" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B353" s="69"/>
-      <c r="C353" s="69"/>
-      <c r="D353" s="70"/>
+      <c r="B353" s="70"/>
+      <c r="C353" s="70"/>
+      <c r="D353" s="71"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
       <c r="A354" s="4" t="s">
@@ -16506,12 +16524,12 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="369" spans="1:4" ht="23.25">
-      <c r="A369" s="68" t="s">
+      <c r="A369" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B369" s="69"/>
-      <c r="C369" s="69"/>
-      <c r="D369" s="70"/>
+      <c r="B369" s="70"/>
+      <c r="C369" s="70"/>
+      <c r="D369" s="71"/>
     </row>
     <row r="370" spans="1:4" ht="15.75">
       <c r="A370" s="4" t="s">
@@ -16697,12 +16715,12 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="385" spans="1:4" ht="23.25">
-      <c r="A385" s="68" t="s">
+      <c r="A385" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B385" s="69"/>
-      <c r="C385" s="69"/>
-      <c r="D385" s="70"/>
+      <c r="B385" s="70"/>
+      <c r="C385" s="70"/>
+      <c r="D385" s="71"/>
     </row>
     <row r="386" spans="1:4" ht="15.75">
       <c r="A386" s="4" t="s">
@@ -16888,12 +16906,12 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="401" spans="1:4" ht="23.25">
-      <c r="A401" s="68" t="s">
+      <c r="A401" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B401" s="69"/>
-      <c r="C401" s="69"/>
-      <c r="D401" s="70"/>
+      <c r="B401" s="70"/>
+      <c r="C401" s="70"/>
+      <c r="D401" s="71"/>
     </row>
     <row r="402" spans="1:4" ht="15.75">
       <c r="A402" s="4" t="s">
@@ -17079,6 +17097,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A261:D261"/>
     <mergeCell ref="A353:D353"/>
     <mergeCell ref="A369:D369"/>
     <mergeCell ref="A385:D385"/>
@@ -17088,26 +17126,6 @@
     <mergeCell ref="A307:D307"/>
     <mergeCell ref="A321:D321"/>
     <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17142,48 +17160,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:19" ht="15.75">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="F2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="K2" s="80" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="K2" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="P2" s="80" t="s">
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="60" t="s">
@@ -17537,24 +17555,24 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:19" ht="23.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="K11" s="68" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -17753,48 +17771,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:19" ht="15.75">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="F2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="K2" s="80" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="K2" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="P2" s="80" t="s">
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="60" t="s">
@@ -18148,24 +18166,24 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:19" ht="23.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="K11" s="68" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -18321,14 +18339,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18338,8 +18356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18363,48 +18381,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:19" ht="15.75">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="F2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="K2" s="80" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="K2" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="P2" s="80" t="s">
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="60" t="s">
@@ -18716,7 +18734,7 @@
       <c r="C9" s="63">
         <v>4</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="68" t="s">
         <v>455</v>
       </c>
       <c r="F9" s="62" t="s">
@@ -18728,7 +18746,7 @@
       <c r="H9" s="63">
         <v>4</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="68" t="s">
         <v>455</v>
       </c>
       <c r="K9" s="62" t="s">
@@ -18740,7 +18758,7 @@
       <c r="M9" s="63">
         <v>4</v>
       </c>
-      <c r="N9" s="83" t="s">
+      <c r="N9" s="68" t="s">
         <v>455</v>
       </c>
       <c r="P9" s="62" t="s">
@@ -18752,30 +18770,30 @@
       <c r="R9" s="63">
         <v>4</v>
       </c>
-      <c r="S9" s="83" t="s">
+      <c r="S9" s="68" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:19" ht="23.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="F11" s="68" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="F11" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="K11" s="68" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -18817,7 +18835,7 @@
     </row>
     <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="54" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>410</v>
@@ -18829,7 +18847,7 @@
         <v>456</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>410</v>
@@ -18841,7 +18859,7 @@
         <v>456</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="L13" s="55" t="s">
         <v>410</v>
@@ -18855,7 +18873,7 @@
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="A14" s="54" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>412</v>
@@ -18867,7 +18885,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="G14" s="56" t="s">
         <v>412</v>
@@ -18879,7 +18897,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>412</v>
@@ -18893,7 +18911,7 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1">
       <c r="A15" s="57" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>414</v>
@@ -18905,7 +18923,7 @@
         <v>456</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>414</v>
@@ -18917,7 +18935,7 @@
         <v>456</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="L15" s="58" t="s">
         <v>414</v>
@@ -18931,14 +18949,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
